--- a/Raw/ACmm-short + ads13.xlsx
+++ b/Raw/ACmm-short + ads13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Fine experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CD0F8-A11D-41BC-A360-9B0668F6BE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D042BE0D-7FF4-4721-A54F-41637E8B19ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66007329-589F-441F-A8CE-7C072945842D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>T</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>pH 8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info </t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,13 +116,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -436,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666AD553-B8D3-45BB-B250-6D51D6F912A0}">
-  <dimension ref="A1:R302"/>
+  <dimension ref="A1:S302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B302" sqref="B261:B302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +487,43 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE($K1,B1)</f>
+        <v>Info pH 5.0</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" ref="M1:S1" si="0">CONCATENATE($K1,C1)</f>
+        <v>Info pH 5.5</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.0</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.5</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.5</v>
+      </c>
+      <c r="R1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.0</v>
+      </c>
+      <c r="S1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -501,32 +551,8 @@
       <c r="I2">
         <v>681232.6875</v>
       </c>
-      <c r="K2">
-        <v>398614.0625</v>
-      </c>
-      <c r="L2">
-        <v>539196.875</v>
-      </c>
-      <c r="M2">
-        <v>663584.4375</v>
-      </c>
-      <c r="N2">
-        <v>582186.5</v>
-      </c>
-      <c r="O2">
-        <v>697456.375</v>
-      </c>
-      <c r="P2">
-        <v>493652.90625</v>
-      </c>
-      <c r="Q2">
-        <v>576795</v>
-      </c>
-      <c r="R2">
-        <v>681232.6875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -554,32 +580,8 @@
       <c r="I3">
         <v>675056.875</v>
       </c>
-      <c r="K3">
-        <v>408222.1875</v>
-      </c>
-      <c r="L3">
-        <v>541043.5</v>
-      </c>
-      <c r="M3">
-        <v>662353.25</v>
-      </c>
-      <c r="N3">
-        <v>579288</v>
-      </c>
-      <c r="O3">
-        <v>693817.0625</v>
-      </c>
-      <c r="P3">
-        <v>488350.1875</v>
-      </c>
-      <c r="Q3">
-        <v>572687.625</v>
-      </c>
-      <c r="R3">
-        <v>675056.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -607,32 +609,32 @@
       <c r="I4">
         <v>671223.75</v>
       </c>
-      <c r="K4">
-        <v>415884.84375</v>
-      </c>
       <c r="L4">
-        <v>543754.5</v>
+        <v>-2.43855284674553E-2</v>
       </c>
       <c r="M4">
-        <v>660495.625</v>
+        <v>-2.51206005242888E-2</v>
       </c>
       <c r="N4">
-        <v>577372.5</v>
+        <v>-2.5676750604056602E-2</v>
       </c>
       <c r="O4">
-        <v>690751.375</v>
+        <v>-2.5574720018505699E-2</v>
       </c>
       <c r="P4">
-        <v>483786</v>
+        <v>-2.4487775901614401E-2</v>
       </c>
       <c r="Q4">
-        <v>569095.75</v>
+        <v>-2.2557667452491301E-2</v>
       </c>
       <c r="R4">
-        <v>671223.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-2.00338919010166E-2</v>
+      </c>
+      <c r="S4">
+        <v>-1.72089650592686E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -660,32 +662,8 @@
       <c r="I5">
         <v>668527.375</v>
       </c>
-      <c r="K5">
-        <v>422763.5</v>
-      </c>
-      <c r="L5">
-        <v>545838</v>
-      </c>
-      <c r="M5">
-        <v>660054.5625</v>
-      </c>
-      <c r="N5">
-        <v>576232.25</v>
-      </c>
-      <c r="O5">
-        <v>687965.125</v>
-      </c>
-      <c r="P5">
-        <v>481340.09375</v>
-      </c>
-      <c r="Q5">
-        <v>566454.375</v>
-      </c>
-      <c r="R5">
-        <v>668527.375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -713,32 +691,32 @@
       <c r="I6">
         <v>666346.75</v>
       </c>
-      <c r="K6">
-        <v>430699.125</v>
-      </c>
       <c r="L6">
-        <v>547816.625</v>
+        <v>12.852399461812601</v>
       </c>
       <c r="M6">
-        <v>659409.9375</v>
+        <v>13.0118330695678</v>
       </c>
       <c r="N6">
-        <v>574486.6875</v>
+        <v>13.0632360957792</v>
       </c>
       <c r="O6">
-        <v>686640.4375</v>
+        <v>12.9856912326553</v>
       </c>
       <c r="P6">
-        <v>477423.0625</v>
+        <v>12.834123955278899</v>
       </c>
       <c r="Q6">
-        <v>564786.875</v>
+        <v>12.6582351476233</v>
       </c>
       <c r="R6">
-        <v>666346.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12.5025367409221</v>
+      </c>
+      <c r="S6">
+        <v>12.368049937964001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -791,7 +769,7 @@
         <v>665255.75</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -844,7 +822,7 @@
         <v>665164.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -897,7 +875,7 @@
         <v>665276.125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -950,7 +928,7 @@
         <v>665433.75</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -1003,7 +981,7 @@
         <v>666192</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1056,7 +1034,7 @@
         <v>667581.3125</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -1109,7 +1087,7 @@
         <v>668528.875</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -1162,7 +1140,7 @@
         <v>670874.125</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -1215,7 +1193,7 @@
         <v>672144.75</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -14205,7 +14183,7 @@
         <v>82.7</v>
       </c>
       <c r="B261">
-        <f t="shared" ref="B261:B301" si="0">K261-(K261-(0.0514540035001002*$A261-0.120927580200614)*EXP(12.70776)*EXP($A261*-0.037194))</f>
+        <f t="shared" ref="B261:B301" si="1">K261-(K261-(0.0514540035001002*$A261-0.120927580200614)*EXP(12.70776)*EXP($A261*-0.037194))</f>
         <v>63015.669996977711</v>
       </c>
       <c r="C261">
@@ -14259,7 +14237,7 @@
         <v>83</v>
       </c>
       <c r="B262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62549.10620759178</v>
       </c>
       <c r="C262">
@@ -14313,7 +14291,7 @@
         <v>83.3</v>
       </c>
       <c r="B263">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62085.137752988572</v>
       </c>
       <c r="C263">
@@ -14367,7 +14345,7 @@
         <v>83.6</v>
       </c>
       <c r="B264">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61623.764482319792</v>
       </c>
       <c r="C264">
@@ -14421,7 +14399,7 @@
         <v>83.899999999999991</v>
       </c>
       <c r="B265">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61164.985928533657</v>
       </c>
       <c r="C265">
@@ -14475,7 +14453,7 @@
         <v>84.2</v>
       </c>
       <c r="B266">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60708.801315410994</v>
       </c>
       <c r="C266">
@@ -14529,7 +14507,7 @@
         <v>84.5</v>
       </c>
       <c r="B267">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60255.209564483717</v>
       </c>
       <c r="C267">
@@ -14583,11 +14561,11 @@
         <v>84.8</v>
       </c>
       <c r="B268">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59804.209301838229</v>
       </c>
       <c r="C268">
-        <f t="shared" ref="C268:C301" si="1">L268-(L268-(0.0541326960496247*$A268+0.230565175767282)*EXP(12.70776)*EXP($A268*-0.037194))</f>
+        <f t="shared" ref="C268:C301" si="2">L268-(L268-(0.0541326960496247*$A268+0.230565175767282)*EXP(12.70776)*EXP($A268*-0.037194))</f>
         <v>67961.311095043246</v>
       </c>
       <c r="D268">
@@ -14638,11 +14616,11 @@
         <v>85.1</v>
       </c>
       <c r="B269">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59355.798864804572</v>
       </c>
       <c r="C269">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67433.590664021074</v>
       </c>
       <c r="D269">
@@ -14693,11 +14671,11 @@
         <v>85.399999999999991</v>
       </c>
       <c r="B270">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58909.976308534002</v>
       </c>
       <c r="C270">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66909.21384486476</v>
       </c>
       <c r="D270">
@@ -14748,11 +14726,11 @@
         <v>85.7</v>
       </c>
       <c r="B271">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58466.739412465788</v>
       </c>
       <c r="C271">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66388.17141061608</v>
       </c>
       <c r="D271">
@@ -14803,11 +14781,11 @@
         <v>86</v>
       </c>
       <c r="B272">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58026.085686685496</v>
       </c>
       <c r="C272">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65870.453927402166</v>
       </c>
       <c r="D272">
@@ -14858,11 +14836,11 @@
         <v>86.3</v>
       </c>
       <c r="B273">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57588.012378175772</v>
       </c>
       <c r="C273">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65356.051760163107</v>
       </c>
       <c r="D273">
@@ -14913,11 +14891,11 @@
         <v>86.6</v>
       </c>
       <c r="B274">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57152.516476962061</v>
       </c>
       <c r="C274">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64844.955078278676</v>
       </c>
       <c r="D274">
@@ -14968,11 +14946,11 @@
         <v>86.899999999999991</v>
       </c>
       <c r="B275">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56719.594722153815</v>
       </c>
       <c r="C275">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64337.153861094288</v>
       </c>
       <c r="D275">
@@ -15023,11 +15001,11 @@
         <v>87.2</v>
       </c>
       <c r="B276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56289.243607883654</v>
       </c>
       <c r="C276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63832.637903348957</v>
       </c>
       <c r="D276">
@@ -15078,11 +15056,11 @@
         <v>87.5</v>
       </c>
       <c r="B277">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55861.459389145522</v>
       </c>
       <c r="C277">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63331.396820505797</v>
       </c>
       <c r="D277">
@@ -15133,11 +15111,11 @@
         <v>87.8</v>
       </c>
       <c r="B278">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55436.238087533151</v>
       </c>
       <c r="C278">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62833.420053987109</v>
       </c>
       <c r="D278">
@@ -15188,11 +15166,11 @@
         <v>88.1</v>
       </c>
       <c r="B279">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55013.575496881218</v>
       </c>
       <c r="C279">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62338.696876315458</v>
       </c>
       <c r="D279">
@@ -15243,11 +15221,11 @@
         <v>88.399999999999991</v>
       </c>
       <c r="B280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54593.467188809343</v>
       </c>
       <c r="C280">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61847.216396161777</v>
       </c>
       <c r="D280">
@@ -15298,11 +15276,11 @@
         <v>88.7</v>
       </c>
       <c r="B281">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54175.908518171731</v>
       </c>
       <c r="C281">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61358.967563302715</v>
       </c>
       <c r="D281">
@@ -15353,11 +15331,11 @@
         <v>89</v>
       </c>
       <c r="B282">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53760.894628412811</v>
       </c>
       <c r="C282">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60873.939173487641</v>
       </c>
       <c r="D282">
@@ -15408,11 +15386,11 @@
         <v>89.3</v>
       </c>
       <c r="B283">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53348.420456830892</v>
       </c>
       <c r="C283">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60392.119873217584</v>
       </c>
       <c r="D283">
@@ -15463,11 +15441,11 @@
         <v>89.6</v>
       </c>
       <c r="B284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52938.480739750928</v>
       </c>
       <c r="C284">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59913.498164436802</v>
       </c>
       <c r="D284">
@@ -15518,11 +15496,11 @@
         <v>89.899999999999991</v>
       </c>
       <c r="B285">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52531.070017608057</v>
       </c>
       <c r="C285">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59438.062409138889</v>
       </c>
       <c r="D285">
@@ -15573,11 +15551,11 @@
         <v>90.2</v>
       </c>
       <c r="B286">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52126.182639942825</v>
       </c>
       <c r="C286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58965.800833888097</v>
       </c>
       <c r="D286">
@@ -15628,11 +15606,11 @@
         <v>90.5</v>
       </c>
       <c r="B287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51723.81277030996</v>
       </c>
       <c r="C287">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58496.7015342581</v>
       </c>
       <c r="D287">
@@ -15683,11 +15661,11 @@
         <v>90.8</v>
       </c>
       <c r="B288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51323.954391101302</v>
       </c>
       <c r="C288">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58030.752479188181</v>
       </c>
       <c r="D288">
@@ -15738,11 +15716,11 @@
         <v>91.1</v>
       </c>
       <c r="B289">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50926.601308285135</v>
       </c>
       <c r="C289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57567.941515259605</v>
       </c>
       <c r="D289">
@@ -15793,11 +15771,11 @@
         <v>91.399999999999991</v>
       </c>
       <c r="B290">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50531.747156062069</v>
       </c>
       <c r="C290">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57108.256370892173</v>
       </c>
       <c r="D290">
@@ -15848,11 +15826,11 @@
         <v>91.7</v>
       </c>
       <c r="B291">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50139.385401439853</v>
       </c>
       <c r="C291">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56651.684660462983</v>
       </c>
       <c r="D291">
@@ -15903,11 +15881,11 @@
         <v>92</v>
       </c>
       <c r="B292">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49749.509348727508</v>
       </c>
       <c r="C292">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56198.213888348306</v>
       </c>
       <c r="D292">
@@ -15958,11 +15936,11 @@
         <v>92.3</v>
       </c>
       <c r="B293">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49362.112143950209</v>
       </c>
       <c r="C293">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55747.831452889513</v>
       </c>
       <c r="D293">
@@ -16013,11 +15991,11 @@
         <v>92.6</v>
       </c>
       <c r="B294">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48977.186779186661</v>
       </c>
       <c r="C294">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55300.524650285057</v>
       </c>
       <c r="D294">
@@ -16068,11 +16046,11 @@
         <v>92.899999999999991</v>
       </c>
       <c r="B295">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48594.72609682913</v>
       </c>
       <c r="C295">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54856.280678408577</v>
       </c>
       <c r="D295">
@@ -16123,11 +16101,11 @@
         <v>93.2</v>
       </c>
       <c r="B296">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48214.722793768444</v>
       </c>
       <c r="C296">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54415.086640555339</v>
       </c>
       <c r="D296">
@@ -16178,11 +16156,11 @@
         <v>93.5</v>
       </c>
       <c r="B297">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47837.169425504173</v>
       </c>
       <c r="C297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53976.929549117289</v>
       </c>
       <c r="D297">
@@ -16233,11 +16211,11 @@
         <v>93.8</v>
       </c>
       <c r="B298">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47462.058410181657</v>
       </c>
       <c r="C298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53541.796329188386</v>
       </c>
       <c r="D298">
@@ -16288,11 +16266,11 @@
         <v>94.1</v>
       </c>
       <c r="B299">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47089.382032556736</v>
       </c>
       <c r="C299">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53109.673822100929</v>
       </c>
       <c r="D299">
@@ -16343,11 +16321,11 @@
         <v>94.399999999999991</v>
       </c>
       <c r="B300">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46719.132447889715</v>
       </c>
       <c r="C300">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52680.548788894477</v>
       </c>
       <c r="D300">
@@ -16398,11 +16376,11 @@
         <v>94.7</v>
       </c>
       <c r="B301">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46351.301685768834</v>
       </c>
       <c r="C301">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52254.407913717689</v>
       </c>
       <c r="D301">
